--- a/data/trans_dic/P07B_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.05734057286580897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03833432402327109</v>
+        <v>0.03833432402327108</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005353102443179224</v>
+        <v>0.006608186230019976</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02991680173168358</v>
+        <v>0.03138146210541295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02215784472141599</v>
+        <v>0.02065442318461433</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0569428826824683</v>
+        <v>0.05622177747333489</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09754122395944127</v>
+        <v>0.1043454572253016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06332105028082144</v>
+        <v>0.06230256912716951</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04484464789297506</v>
+        <v>0.04484464789297507</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0453442017591849</v>
+        <v>0.04534420175918489</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04510076541387571</v>
+        <v>0.04510076541387572</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02283560293815024</v>
+        <v>0.02102879949971036</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02845357567454022</v>
+        <v>0.02600395705603245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03134277608053474</v>
+        <v>0.03058220874953027</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07533330340377541</v>
+        <v>0.07379964184060733</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06982744378203541</v>
+        <v>0.0695891330251289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06541128334163278</v>
+        <v>0.06316937041983003</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.04785615914916115</v>
+        <v>0.04785615914916116</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.05200025777205782</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03120848938144905</v>
+        <v>0.03276739620882573</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03854388050303691</v>
+        <v>0.03846408480707838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03931210506631057</v>
+        <v>0.03898855949146417</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07030006248099573</v>
+        <v>0.07002273487699984</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06795751601640322</v>
+        <v>0.06980793145534593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06293972295388227</v>
+        <v>0.06305253061622597</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05430660775332106</v>
+        <v>0.05461921887096671</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07298194897425429</v>
+        <v>0.07384126172595484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06739858047154709</v>
+        <v>0.0688657774166211</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09837497673423648</v>
+        <v>0.09800607792111832</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1073137348941986</v>
+        <v>0.1086782824927606</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09583094734663007</v>
+        <v>0.0951993339292815</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08396487953742453</v>
+        <v>0.08396487953742454</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.123179525605052</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06518758284780295</v>
+        <v>0.06576141956958166</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1042830438033203</v>
+        <v>0.1034400010624464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08984254154640584</v>
+        <v>0.08836381654192504</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1076001635710018</v>
+        <v>0.1060326266289263</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1474216356073739</v>
+        <v>0.1437277351966399</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1185803924761996</v>
+        <v>0.1188568829687099</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.05695664115383522</v>
+        <v>0.05695664115383521</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.114041135309997</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.08658110275491988</v>
+        <v>0.08658110275491991</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0416554294372644</v>
+        <v>0.04054359751142942</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09319905492360375</v>
+        <v>0.09268660503463177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0717657531348926</v>
+        <v>0.0725819158294537</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07820794753816371</v>
+        <v>0.0778006757774167</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1382446478212428</v>
+        <v>0.1375386582301667</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1025149133202084</v>
+        <v>0.1028255361954701</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08658049019164134</v>
+        <v>0.085034376851937</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1750602250762872</v>
+        <v>0.1742845437228622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.145583751988805</v>
+        <v>0.1475508734439049</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1452081810417213</v>
+        <v>0.1435184894020014</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2289021485610062</v>
+        <v>0.2297761882819876</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1854579048862597</v>
+        <v>0.1871575742016891</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.06228152526108632</v>
+        <v>0.06228152526108634</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.09656436482978181</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.07990295609708961</v>
+        <v>0.07990295609708963</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05448332150784829</v>
+        <v>0.05405775258462145</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08754640684408047</v>
+        <v>0.08842296391510542</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07399861662615206</v>
+        <v>0.0740401140173286</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07228175861979326</v>
+        <v>0.07194301683148618</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1043834565918146</v>
+        <v>0.1045755493710412</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0859326066867061</v>
+        <v>0.08552808635343949</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2183</v>
+        <v>2695</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10845</v>
+        <v>11376</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17068</v>
+        <v>15910</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23221</v>
+        <v>22927</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35360</v>
+        <v>37826</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48777</v>
+        <v>47992</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10890</v>
+        <v>10028</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14276</v>
+        <v>13047</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30673</v>
+        <v>29928</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35926</v>
+        <v>35194</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35035</v>
+        <v>34915</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64013</v>
+        <v>61819</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19375</v>
+        <v>20343</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23996</v>
+        <v>23946</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48880</v>
+        <v>48478</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43645</v>
+        <v>43473</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42307</v>
+        <v>43459</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>78259</v>
+        <v>78399</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38048</v>
+        <v>38267</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>53779</v>
+        <v>54413</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>96886</v>
+        <v>98995</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68923</v>
+        <v>68665</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>79078</v>
+        <v>80084</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>137757</v>
+        <v>136849</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39722</v>
+        <v>40071</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>63493</v>
+        <v>62980</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>109446</v>
+        <v>107645</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>65566</v>
+        <v>64611</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>89758</v>
+        <v>87509</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>144455</v>
+        <v>144792</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>16957</v>
+        <v>16504</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>40930</v>
+        <v>40705</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>60731</v>
+        <v>61422</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31837</v>
+        <v>31671</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>60712</v>
+        <v>60402</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>86753</v>
+        <v>87016</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>26857</v>
+        <v>26377</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>81335</v>
+        <v>80974</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>112799</v>
+        <v>114323</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>45043</v>
+        <v>44519</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>106350</v>
+        <v>106756</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>143694</v>
+        <v>145011</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>192477</v>
+        <v>190973</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>327101</v>
+        <v>330376</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>537902</v>
+        <v>538204</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>255354</v>
+        <v>254158</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>390010</v>
+        <v>390728</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>624651</v>
+        <v>621711</v>
       </c>
     </row>
     <row r="36">
